--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3642.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3642.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.537859758906889</v>
+        <v>0.6644631028175354</v>
       </c>
       <c r="B1">
-        <v>1.780690614990682</v>
+        <v>1.783824324607849</v>
       </c>
       <c r="C1">
-        <v>1.824140726152534</v>
+        <v>2.439590692520142</v>
       </c>
       <c r="D1">
-        <v>2.185676049810452</v>
+        <v>1.734158992767334</v>
       </c>
       <c r="E1">
-        <v>3.031816175195985</v>
+        <v>0.8633520603179932</v>
       </c>
     </row>
   </sheetData>
